--- a/data/Unicrypt/Unicrypt20130101.xlsx
+++ b/data/Unicrypt/Unicrypt20130101.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178">
